--- a/kerja-praktek/public/database_temp/rekap (1).xlsx
+++ b/kerja-praktek/public/database_temp/rekap (1).xlsx
@@ -194,10 +194,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <name val="Arial"/>
     </font>
     <font>
@@ -205,12 +209,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E6FC"/>
+        <bgColor rgb="FFD9E6FC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -233,20 +243,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -466,117 +479,111 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3">
-        <v>116.0</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>29.0</v>
-      </c>
+        <v>116.0</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>50.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>18.0</v>
+      </c>
       <c r="H3" s="3">
-        <v>5.0</v>
+        <v>29.0</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>19.0</v>
-      </c>
+        <v>34.0</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+        <v>31.0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>16.0</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -584,131 +591,127 @@
       <c r="F6" s="3">
         <v>17.0</v>
       </c>
-      <c r="G6" s="3">
-        <v>5.0</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="G7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="3">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>14.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.0</v>
+      </c>
       <c r="H8" s="3">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>8.0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>31.0</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>6.0</v>
       </c>
       <c r="G10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.0</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G11" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" s="3">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -719,16 +722,18 @@
       <c r="G12" s="3">
         <v>3.0</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -737,24 +742,18 @@
         <v>4.0</v>
       </c>
       <c r="G13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -763,20 +762,24 @@
         <v>4.0</v>
       </c>
       <c r="G14" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H14" s="3">
         <v>1.0</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -784,17 +787,21 @@
       <c r="F15" s="3">
         <v>4.0</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -802,25 +809,23 @@
       <c r="F16" s="3">
         <v>4.0</v>
       </c>
-      <c r="G16" s="3">
-        <v>4.0</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G17" s="3">
         <v>4.0</v>
@@ -831,52 +836,50 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.0</v>
-      </c>
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
         <v>3.0</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>4.0</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.0</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
         <v>3.0</v>
       </c>
-      <c r="G19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3.0</v>
-      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -888,17 +891,17 @@
         <v>1.0</v>
       </c>
       <c r="H20" s="3">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -906,7 +909,9 @@
       <c r="F21" s="3">
         <v>3.0</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>1.0</v>
+      </c>
       <c r="H21" s="3">
         <v>1.0</v>
       </c>
@@ -915,10 +920,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -926,19 +931,19 @@
       <c r="F22" s="3">
         <v>3.0</v>
       </c>
-      <c r="G22" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -946,19 +951,19 @@
       <c r="F23" s="3">
         <v>3.0</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="G23" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -967,36 +972,36 @@
         <v>3.0</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1004,19 +1009,19 @@
       <c r="F26" s="3">
         <v>2.0</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="G26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1025,16 +1030,18 @@
         <v>2.0</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1049,10 +1056,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1067,16 +1074,16 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1085,10 +1092,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1103,10 +1110,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1115,18 +1122,16 @@
         <v>1.0</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1135,16 +1140,18 @@
         <v>1.0</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1159,10 +1166,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1170,19 +1177,17 @@
       <c r="F35" s="3">
         <v>1.0</v>
       </c>
-      <c r="G35" s="3">
-        <v>2.0</v>
-      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1190,17 +1195,19 @@
       <c r="F36" s="3">
         <v>1.0</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>2.0</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1215,10 +1222,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1227,18 +1234,16 @@
         <v>1.0</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3">
-        <v>9.0</v>
-      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1247,16 +1252,18 @@
         <v>1.0</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3">
+        <v>9.0</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1271,10 +1278,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1289,10 +1296,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1301,18 +1308,16 @@
         <v>1.0</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>18.0</v>
-      </c>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1320,21 +1325,19 @@
       <c r="F43" s="3">
         <v>1.0</v>
       </c>
-      <c r="G43" s="3">
-        <v>2.0</v>
-      </c>
+      <c r="G43" s="3"/>
       <c r="H43" s="3">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>44.0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1342,79 +1345,83 @@
       <c r="F44" s="3">
         <v>1.0</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3">
+        <v>2.0</v>
+      </c>
       <c r="H44" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3">
+        <v>1.0</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+        <v>15.0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>4.0</v>
-      </c>
+      <c r="H46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>47.0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="3">
         <v>4.0</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1422,17 +1429,17 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1440,53 +1447,53 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3">
         <v>2.0</v>
       </c>
-      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="G51" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1494,17 +1501,17 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1512,17 +1519,17 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1537,10 +1544,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1555,10 +1562,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1566,66 +1573,84 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
         <v>2.0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1.0</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>58.0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>57.0</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H58" s="3"/>
+        <v>2.0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
